--- a/数据整理/stocks/A股/上证主板/600486-扬农化工.xlsx
+++ b/数据整理/stocks/A股/上证主板/600486-扬农化工.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6756,7 +6757,6 @@
           <t>工银核心价值混合H</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
           <t>83.62</t>
@@ -6788,7 +6788,6 @@
           <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
           <t>91.20</t>
@@ -6804,6 +6803,1652 @@
       </c>
       <c r="H70" t="n">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001216</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>110.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.7161</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001217</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8363</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001832</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达瑞恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6154</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1753</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>850588</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1540</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011042</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6906</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6682</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6573</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>070003</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实稳健混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>26.77</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>72.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6211</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>73.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4361</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161132</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达科顺定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4277</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005726</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3690</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007066</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2817</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>72.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2748</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005660</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2500</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2265</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007067</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1776</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1368</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006013</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>29.48</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1325</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000805</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中银新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>77.35</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005661</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001577</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实低价策略股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>163810</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>71.70</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>850005</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>850599</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011043</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002212</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实新起航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>27.92</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>501032</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007266</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实新添益定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>26.64</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006522</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006014</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>29.48</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003308</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>73.16</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006523</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011324</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007267</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>嘉实新添益定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>26.64</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004635</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>73.16</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600486-扬农化工.xlsx
+++ b/数据整理/stocks/A股/上证主板/600486-扬农化工.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8433,7 +8434,6 @@
           <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
           <t>80.11</t>
@@ -8449,6 +8449,1430 @@
       </c>
       <c r="H43" t="n">
         <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001216</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>99.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.8198</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003984</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>67.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0843</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001217</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2218</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001832</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达瑞恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4200</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011643</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8433</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8430</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010536</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7875</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003985</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7216</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>070003</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实稳健混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>66.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5830</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001603</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达安盈回报混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>30.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>42.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5591</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011042</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5580</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>73.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4568</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4506</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009591</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4190</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161132</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达科顺定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4013</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005660</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3596</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005726</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2314</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>850588</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>70.70</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2234</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1771</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006013</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.29</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>27.31</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1242</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010537</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰康优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1193</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005661</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1037</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012002</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0793</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001577</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实低价策略股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>82.75</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>257050</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国联安主题驱动混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>73.70</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011644</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009592</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011043</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>850005</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>70.70</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>850599</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>70.70</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006014</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>27.31</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003308</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004775</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实新添泽定期开放混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004635</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011324</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600486-扬农化工.xlsx
+++ b/数据整理/stocks/A股/上证主板/600486-扬农化工.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9878,4 +9879,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>36</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>42</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>69</v>
+      </c>
+      <c r="D4" t="n">
+        <v>21.49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>96</v>
+      </c>
+      <c r="D5" t="n">
+        <v>23.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600486-扬农化工.xlsx
+++ b/数据整理/stocks/A股/上证主板/600486-扬农化工.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9887,7 +9888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9898,17 +9899,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9918,14 +9939,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>36</v>
-      </c>
-      <c r="D2" t="n">
-        <v>22.92</v>
+          <t>001216</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>95.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.2005</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -9934,14 +9977,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>42</v>
-      </c>
-      <c r="D3" t="n">
-        <v>17.48</v>
+          <t>010340</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达高质量严选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>134.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.3458</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -9950,14 +10015,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>69</v>
-      </c>
-      <c r="D4" t="n">
-        <v>21.49</v>
+          <t>001217</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6059</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -9966,13 +10053,1443 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001832</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达瑞恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7767</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160527</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4960</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001603</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达安盈回报混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>36.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>46.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4340</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011643</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>24.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0745</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010536</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9848</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003985</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8632</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>070003</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实稳健混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>73.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7293</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003984</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6583</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>72.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4762</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005660</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3449</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013004</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>73.55</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3047</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>850588</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>59.12</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2726</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005726</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2493</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006013</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>26.39</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1557</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010537</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰康优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>95.09</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1488</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005661</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1089</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001577</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实低价策略股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>050014</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时创业成长混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>161132</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达科顺定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011644</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>560500</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>257050</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国联安主题驱动混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>73.66</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>160528</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>850005</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>59.12</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010066</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004775</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实新添泽定期开放混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>23.98</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013005</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>73.55</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>850599</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>59.12</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006014</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>26.39</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002553</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博时创业成长混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011324</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010067</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>38</v>
+      </c>
+      <c r="D2" t="n">
+        <v>29.88</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>36</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22.92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>42</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17.48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>69</v>
+      </c>
+      <c r="D5" t="n">
+        <v>21.49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>96</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>23.2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600486-扬农化工.xlsx
+++ b/数据整理/stocks/A股/上证主板/600486-扬农化工.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11388,7 +11389,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11399,17 +11400,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -11419,14 +11440,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>38</v>
-      </c>
-      <c r="D2" t="n">
-        <v>29.88</v>
+          <t>001216</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.7473</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -11435,14 +11478,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>36</v>
-      </c>
-      <c r="D3" t="n">
-        <v>22.92</v>
+          <t>010340</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达高质量严选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>113.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.8458</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -11451,14 +11516,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>42</v>
-      </c>
-      <c r="D4" t="n">
-        <v>17.48</v>
+          <t>001217</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9513</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -11467,14 +11554,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>69</v>
-      </c>
-      <c r="D5" t="n">
-        <v>21.49</v>
+          <t>001832</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达瑞恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3856</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -11483,13 +11592,1227 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>160527</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3279</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001603</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达安盈回报混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>49.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3191</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001184</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达新常态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9613</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010536</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9065</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>74.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4264</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013004</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2591</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005726</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2021</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1926</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006013</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>25.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1748</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005660</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1679</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010537</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰康优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1371</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>860009</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>光大阳光稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14.35</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>32.56</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1277</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>860058</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>光大阳光稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>32.56</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>161132</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达科顺定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001577</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实低价策略股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005661</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160528</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>95.51</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>860006</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006014</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>25.24</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002288</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>66.42</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004775</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实新添泽定期开放混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>26.79</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013005</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004916</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实新添丰定期开放混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011324</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010066</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010067</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>860055</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>860056</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>38</v>
+      </c>
+      <c r="D3" t="n">
+        <v>29.88</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>36</v>
+      </c>
+      <c r="D4" t="n">
+        <v>22.92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>42</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17.48</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>69</v>
+      </c>
+      <c r="D6" t="n">
+        <v>21.49</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>96</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>23.2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600486-扬农化工.xlsx
+++ b/数据整理/stocks/A股/上证主板/600486-扬农化工.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12695,7 +12696,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12706,17 +12707,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -12726,14 +12747,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>33</v>
-      </c>
-      <c r="D2" t="n">
-        <v>22.55</v>
+          <t>001216</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>67.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0255</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -12742,14 +12785,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>38</v>
-      </c>
-      <c r="D3" t="n">
-        <v>29.88</v>
+          <t>013910</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴业兴睿两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>79.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2693</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -12758,14 +12823,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>36</v>
-      </c>
-      <c r="D4" t="n">
-        <v>22.92</v>
+          <t>160527</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3139</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -12774,14 +12861,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>42</v>
-      </c>
-      <c r="D5" t="n">
-        <v>17.48</v>
+          <t>001603</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达安盈回报混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>29.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>40.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1654</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -12790,14 +12899,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>69</v>
-      </c>
-      <c r="D6" t="n">
-        <v>21.49</v>
+          <t>001217</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0989</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -12806,13 +12937,2349 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>010536</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0010</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>750001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>40.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8923</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013911</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴业兴睿两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>27.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>75.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7875</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4608</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003886</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2960</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010537</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰康优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1527</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003887</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1471</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005587</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信比较优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>77.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1414</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1288</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013626</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>860009</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>光大阳光稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14.37</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>31.41</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1178</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006013</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1178</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001443</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>33.08</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1091</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001444</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>33.08</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1091</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013639</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0863</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>78.07</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>161132</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达科顺定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013627</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008851</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>景顺长城量化对冲策略三个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>78.18</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>970041</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国海量化优选一年持有股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002222</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>27.08</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>860058</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>光大阳光稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>31.41</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>970042</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国海量化优选一年持有股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001755</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>26.93</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006336</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>泓德量化精选混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>160528</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>98.32</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006014</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011934</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中航量化阿尔法六个月持有股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>013774</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>易方达趋势优选混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>70.40</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011935</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中航量化阿尔法六个月持有股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>501219</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华夏智胜先锋股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009750</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004775</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>嘉实新添泽定期开放混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>013640</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014198</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华夏智胜先锋股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009751</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>003854</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>39.19</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>003855</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>39.19</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010851</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>海富通富利三个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>25.84</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>015225</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>汇添富中证细分化工产业主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>013775</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>易方达趋势优选混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>70.40</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010850</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>海富通富利三个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>25.84</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>003761</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>015226</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>汇添富中证细分化工产业主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010066</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010067</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>63</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.88</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>38</v>
+      </c>
+      <c r="D4" t="n">
+        <v>29.88</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>36</v>
+      </c>
+      <c r="D5" t="n">
+        <v>22.92</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>42</v>
+      </c>
+      <c r="D6" t="n">
+        <v>17.48</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>69</v>
+      </c>
+      <c r="D7" t="n">
+        <v>21.49</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>96</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>23.2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600486-扬农化工.xlsx
+++ b/数据整理/stocks/A股/上证主板/600486-扬农化工.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>15.88</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="D3" t="n">
-        <v>22.55</v>
+        <v>15.88</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>29.88</v>
+        <v>22.55</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D5" t="n">
-        <v>22.92</v>
+        <v>29.88</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D6" t="n">
-        <v>17.48</v>
+        <v>22.92</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="D7" t="n">
-        <v>21.49</v>
+        <v>17.48</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>69</v>
+      </c>
+      <c r="D8" t="n">
+        <v>21.49</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>96</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>23.2</v>
       </c>
     </row>
@@ -600,6 +617,1352 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001216</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>39.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9595</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009812</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达悦兴一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>61.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2390</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001217</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0545</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160527</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9667</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001603</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达安盈回报混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>32.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8726</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010536</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6307</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4913</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009813</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达悦兴一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3610</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>016950</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1574</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010537</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰康优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1202</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006013</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>22.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002222</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>26.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001688</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>24.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001755</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>25.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160528</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>97.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000573</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘通利混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006014</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>22.51</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>47.79</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014627</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>财通多策略福瑞混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>61.59</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013774</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达趋势优选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>501028</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>财通多策略福瑞混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>61.59</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>562900</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达中证现代农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>97.55</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009750</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009751</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013775</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>易方达趋势优选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002178</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>24.70</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3049,7 +4412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4355,7 +5718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5855,7 +7218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7279,7 +8642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8924,7 +10287,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11588,7 +12951,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600486-扬农化工.xlsx
+++ b/数据整理/stocks/A股/上证主板/600486-扬农化工.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
-        <v>9.35</v>
+        <v>18.74</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
-        <v>15.88</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="D4" t="n">
-        <v>22.55</v>
+        <v>15.88</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D5" t="n">
-        <v>29.88</v>
+        <v>22.55</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D6" t="n">
-        <v>22.92</v>
+        <v>29.88</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D7" t="n">
-        <v>17.48</v>
+        <v>22.92</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="D8" t="n">
-        <v>21.49</v>
+        <v>17.48</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,3730 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>69</v>
+      </c>
+      <c r="D9" t="n">
+        <v>21.49</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>96</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>23.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H97"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>481001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>55.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1044</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>960010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银核心价值混合H</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1044</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000577</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信价值精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>38.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6305</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001216</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2331</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001832</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达瑞恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1121</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001217</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8947</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007066</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8491</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6631</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001008</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6373</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>70.37</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5805</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161132</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达科顺定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5047</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004374</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4864</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000020</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城品质投资混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.84</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4496</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>71.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4124</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007067</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3687</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006642</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3110</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000167</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2776</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>960009</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发聚优灵活配置混合H</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2776</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010363</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信达澳银匠心臻选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>18.51</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2758</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002270</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东吴安盈量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2606</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>481008</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2514</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001651</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.48</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2510</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005904</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2186</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001603</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达安盈回报混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>49.64</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2066</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>515110</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12.24</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2056</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004375</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1960</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008657</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1860</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>39.96</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1665</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>360005</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>光大保德信红利混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1630</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1569</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006013</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>29.72</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1478</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004608</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>26.01</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1448</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009971</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>创金合信核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>40.74</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1431</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001719</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>工银瑞信国家战略主题股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1366</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005914</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>景顺长城智能生活混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.25</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1313</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005660</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1150</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001577</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实低价策略股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1130</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001626</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国泰央企改革股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>515990</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇添富中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>96.96</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>860006</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.89</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>860055</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>84.89</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002212</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实新起航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>25.27</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0893</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0865</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>519971</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长信改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>25.87</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009154</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>海富通富盈混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>27.53</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002211</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>嘉实新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>24.52</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>519177</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>浦银安盛盛世精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>76.08</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005661</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>519127</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>浦银安盛盛世精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004609</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>26.01</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007674</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>519656</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>60.30</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006801</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>79.65</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004274</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>浦银安盛安恒回报定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>26.45</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009155</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>海富通富盈混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>27.53</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005876</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005877</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>007266</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>嘉实新添益定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>27.05</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>76.08</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>006982</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>嘉实新添元定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>25.88</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>519657</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>60.30</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>004916</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>嘉实新添丰定期开放混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>39.64</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>007439</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>东海科技动力混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>007675</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006014</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>29.72</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006802</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>79.65</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>005905</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>000804</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中信建投稳利混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>004275</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>浦银安盛安恒回报定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>26.45</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>006983</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>嘉实新添元定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>25.88</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>004353</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>嘉实新添华定期开放混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>29.42</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>000578</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>鑫元恒鑫收益增强债券A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>006844</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中信建投稳利混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>007463</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>东海科技动力混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>011476</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>81.48</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>006009</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>33.01</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>000579</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>鑫元恒鑫收益增强债券C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>007267</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>嘉实新添益定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>27.05</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>006010</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>33.01</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>009972</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>创金合信核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>40.74</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>860056</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>84.89</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +4334,1088 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001216</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.1572</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009812</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达悦兴一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>34.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5175</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>60.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5142</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001603</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达安盈回报混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>42.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3209</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001217</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3201</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012940</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1298</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000577</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信价值精选股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0255</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160527</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0040</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.55</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9750</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009813</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达悦兴一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>34.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7755</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010536</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰康优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6527</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>74.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5210</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>016090</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1532</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010537</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰康优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1277</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006013</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>28.62</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001755</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>23.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001747</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>42.38</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001748</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>42.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002222</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>26.01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001688</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>23.23</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>97.56</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>160528</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006014</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>28.62</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159616</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>建信中证农牧主题ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>97.58</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>562900</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达中证现代农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002178</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>23.23</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1962,7 +6761,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4412,7 +9211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5718,7 +10517,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7218,7 +12017,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8642,7 +13441,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10287,7 +15086,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12949,3704 +17748,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H97"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>481001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>工银核心价值混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>55.14</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.63</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.1044</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>960010</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>工银核心价值混合H</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>55.14</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.63</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3.1044</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000577</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>安信价值精选股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>38.57</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.68</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.82</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.6305</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001216</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达新收益灵活配置混合 - A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>25.69</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.38</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.2331</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001832</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>易方达瑞恒灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>12.71</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88.59</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.75</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.1121</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001217</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>易方达新收益灵活配置混合 - C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>18.64</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.38</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.8947</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007066</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>浦银安盛先进制造混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>9.28</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.12</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>9.15</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.8491</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002910</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>易方达供给改革灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>13.45</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.52</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.6631</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001008</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>工银国企改革主题股票</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>11.18</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.65</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.70</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.6373</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>257010</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国联安小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>9.79</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>70.37</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.93</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.5805</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>161132</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>易方达科顺定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.49</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>7.59</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.5047</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>004374</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华泰保兴吉年丰混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>10.35</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>90.31</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.4864</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>000020</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>景顺长城品质投资混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>17.84</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>88.27</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.4496</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>288001</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华夏经典配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>9.68</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>71.90</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.4124</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>007067</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>浦银安盛先进制造混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>90.12</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>9.15</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.3687</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>006642</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华泰保兴吉年利定期开放混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>6.48</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>92.25</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.3110</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>000167</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>广发聚优灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>87.23</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.2776</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>960009</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>广发聚优灵活配置混合H</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>87.23</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.2776</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>010363</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>信达澳银匠心臻选两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>18.51</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>80.04</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.2758</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>002270</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>东吴安盈量化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>86.45</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.2606</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>481008</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>工银大盘蓝筹混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>86.54</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.2514</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>001651</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>工银瑞信新蓝筹股票A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>81.48</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.2510</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>005904</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>华泰保兴成长优选混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>94.54</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.2186</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>001603</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>易方达安盈回报混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>8.79</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>49.64</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.2066</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>515110</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>易方达中证国企一带一路ETF</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>12.24</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>98.83</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.2056</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>004375</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>华泰保兴吉年丰混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>90.31</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.1960</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>008657</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>景顺长城科技创新混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>6.04</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>90.72</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.1860</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>002367</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>国联安安稳灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>39.96</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.1665</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>360005</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>光大保德信红利混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>89.01</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.1630</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>006567</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>中泰星元价值优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>81.32</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.1569</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>006013</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>易方达鑫转招利混合A</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>9.92</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>29.72</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.1478</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>004608</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>长信乐信灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>8.23</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>26.01</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.1448</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>009971</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>创金合信核心价值混合A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>40.74</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.1431</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>001719</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>工银瑞信国家战略主题股票</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>93.09</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>7.85</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.1366</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>005914</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>景顺长城智能生活混合</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>85.25</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.1313</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>005660</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>嘉实资源精选股票A</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>93.93</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>5.09</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.1150</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>001577</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>嘉实低价策略股票</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.1130</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>001626</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>国泰央企改革股票</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>84.63</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0995</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>515990</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>汇添富中证国企一带一路ETF</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>96.96</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0950</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>860006</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>光大阳光优选一年持有混合A</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>84.89</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0922</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>860055</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>光大阳光优选一年持有混合B</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>84.89</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0922</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>002212</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>嘉实新起航灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>7.03</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>25.27</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0893</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>002906</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>南方中证500量化增强股票A</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>91.11</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0865</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>519971</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>长信改革红利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>25.87</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0792</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>009154</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>海富通富盈混合A</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>12.31</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>27.53</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0776</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>002211</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>嘉实新财富灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>7.17</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>24.52</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0760</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>519177</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>浦银安盛盛世精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>8.89</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>24.78</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0756</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>007811</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>淳厚信泽灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>76.08</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0726</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>005661</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>嘉实资源精选股票C</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>93.93</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>5.09</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0713</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>006624</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>中泰玉衡价值优选混合</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>81.24</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0692</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>519127</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>浦银安盛盛世精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>7.81</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>24.78</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0664</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>004609</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>长信乐信灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>26.01</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0616</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>007674</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>工银瑞信产业升级股票A</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>93.36</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>9.35</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0589</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>005381</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>泰康睿利量化多策略混合A</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>94.25</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0396</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>519656</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>银河灵活配置混合 - A</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>60.30</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0395</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>006801</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>新疆前海联合科技先锋混合A</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>79.65</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0328</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>004274</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>浦银安盛安恒回报定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>26.45</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0316</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>009155</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>海富通富盈混合C</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>27.53</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0314</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>005876</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>易方达鑫转增利混合A</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>29.86</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.0269</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>002907</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>南方中证500量化增强股票C</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>91.11</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0.0266</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>400023</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>东方多策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>88.25</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0.0236</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>003016</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>中金中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>93.77</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>0.0232</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>002068</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>东方多策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>88.25</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>0.0192</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>005877</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>易方达鑫转增利混合C</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>29.86</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>0.0189</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>007266</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>嘉实新添益定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>27.05</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>0.0180</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>006138</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>国联安价值优选股票</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>91.51</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>6.08</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>0.0158</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>007812</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>淳厚信泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>76.08</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>0.0157</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>006982</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>嘉实新添元定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>25.88</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>0.0148</t>
-        </is>
-      </c>
-      <c r="H69" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>519657</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>银河灵活配置混合 - C</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>60.30</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>0.0148</t>
-        </is>
-      </c>
-      <c r="H70" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>004916</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>嘉实新添丰定期开放混合</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>39.64</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>0.0141</t>
-        </is>
-      </c>
-      <c r="H71" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>007439</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>东海科技动力混合A</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>89.09</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>0.0133</t>
-        </is>
-      </c>
-      <c r="H72" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>007675</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>工银瑞信产业升级股票C</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>93.36</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>9.35</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>0.0122</t>
-        </is>
-      </c>
-      <c r="H73" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>006014</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>易方达鑫转招利混合C</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>29.72</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>0.0116</t>
-        </is>
-      </c>
-      <c r="H74" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>006802</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>新疆前海联合科技先锋混合C</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>79.65</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>0.0114</t>
-        </is>
-      </c>
-      <c r="H75" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>003578</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>中金中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>93.77</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>0.0114</t>
-        </is>
-      </c>
-      <c r="H76" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>005905</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>华泰保兴成长优选混合C</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>94.54</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>0.0110</t>
-        </is>
-      </c>
-      <c r="H77" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>000804</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>中信建投稳利混合A</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>26.71</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>0.0102</t>
-        </is>
-      </c>
-      <c r="H78" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>004275</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>浦银安盛安恒回报定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>26.45</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>0.0097</t>
-        </is>
-      </c>
-      <c r="H79" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>006983</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>嘉实新添元定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>25.88</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>0.0097</t>
-        </is>
-      </c>
-      <c r="H80" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>005161</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>华商上游产业股票</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>87.58</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>0.0093</t>
-        </is>
-      </c>
-      <c r="H81" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>004353</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>嘉实新添华定期开放混合</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>29.42</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>0.0090</t>
-        </is>
-      </c>
-      <c r="H82" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>501069</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>94.85</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>0.0085</t>
-        </is>
-      </c>
-      <c r="H83" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>582003</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>东吴配置优化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>0.0082</t>
-        </is>
-      </c>
-      <c r="H84" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>519034</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>海富通中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>0.0074</t>
-        </is>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>000578</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>鑫元恒鑫收益增强债券A</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>20.03</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>0.0051</t>
-        </is>
-      </c>
-      <c r="H86" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>006844</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>中信建投稳利混合C</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>26.71</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>0.0041</t>
-        </is>
-      </c>
-      <c r="H87" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>007463</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>东海科技动力混合C</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>89.09</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>0.0036</t>
-        </is>
-      </c>
-      <c r="H88" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>011476</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>工银瑞信新蓝筹股票C</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>81.48</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>0.0020</t>
-        </is>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>005382</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>泰康睿利量化多策略混合C</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>94.25</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H90" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>009004</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>海富通中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H91" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>006009</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>国融融银灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>33.01</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H92" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>000579</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>鑫元恒鑫收益增强债券C</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>20.03</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H93" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>007267</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>嘉实新添益定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>27.05</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H94" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>006010</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>国融融银灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>33.01</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H95" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>009972</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>创金合信核心价值混合C</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>40.74</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="G96" t="n">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>860056</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>光大阳光优选一年持有混合C</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>84.89</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="G97" t="n">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>